--- a/medicine/Psychotrope/McAuslan/McAuslan.xlsx
+++ b/medicine/Psychotrope/McAuslan/McAuslan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Établie en janvier 1989 au 4850, rue Saint-Ambroise dans le quartier Saint-Henri à Montréal, la Brasserie McAuslan est devenue très vite l’une des plus grandes microbrasseries au Québec[1].
+Établie en janvier 1989 au 4850, rue Saint-Ambroise dans le quartier Saint-Henri à Montréal, la Brasserie McAuslan est devenue très vite l’une des plus grandes microbrasseries au Québec.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brasserie a lancé sa première bière en février 1989. La bière blonde St-Ambroise a obtenu un vif succès. Elle s’est immédiatement distinguée par son caractère houblonné et ses reflets d’ambre vermeil, et a gagné la faveur des amateurs. Peu de temps après, la Brasserie McAuslan devenait la première microbrasserie à offrir sa bière en bouteilles.
 La brasserie n’a cessé de prendre de l’expansion en termes de capacité de brassage et de se tailler une part de marché toujours plus grande. À la suite du lancement de la bière St-Ambroise pale ale, la Brasserie a introduit la bière St-Ambroise noire à l’avoine en décembre 1991 ; ses deux marques Griffon, l’extra blonde et la rousse, en avril 1992 ; enfin, la bière blonde de luxe Frontenac, introduite à l’essai à Québec en novembre 1995 et lancée officiellement sur tout le marché québécois, en avril 1996.
 En juin 1997, McAuslan a lancé sur le marché sa gamme de bières saisonnières, une saison à la fois, en commençant par la bière d’été, aux framboises. Les quatre bières saisonnières ne sont brassées que durant leur saison respective : la bière de blé à l’abricot, au printemps (maintenant disponible à l’année) ; la bière aux framboises, en été ; la bière à la citrouille épicée, en automne ; et la bière forte, en hiver.
 En 1998, la brasserie s’est associée aux Vergers du Minot pour distribuer un cidre mousseux à la pression, puis la même année, le cidre Mystique en bouteilles.
 Si la Brasserie McAuslan a pris un tel essor, c’est essentiellement parce que son fondateur, Peter McAuslan, était convaincu que, s’il pouvait brasser une meilleure bière, les consommateurs n’hésiteraient pas à l’adopter. Bien qu’il brasse sa propre bière depuis son jeune age, ce n’est qu’au début des années 1980 qu’il a sérieusement envisagé d’exploiter ses talents à l’échelle commerciale. En août 1987, il a quitté son poste d’administrateur principal au collège Dawson et s’est engagé à transformer sa vision en réalité.
-Il a consacré l’année suivante à trouver le financement nécessaire, à acquérir des connaissances et de l’équipement, et à constituer une équipe de collaborateurs possédant toutes les compétences pour assurer la réussite de l’entreprise. Un maître brasseur venu d’Angleterre, Alan Pugsley, a été engagé pour mettre au point la recette de la St-Ambroise. Conjointement avec Ellen Bounsall, biologiste de formation et maître brasseuse, il a reçu le mandat d’établir la réputation de la Brasserie dans le créneau des bières de distinction. Des critiques du monde entier ont vite classé ses bières parmi les meilleures au monde. La Brasserie a recueilli jusqu’ici plus d’une vingtaine de médailles à des concours internationaux, dont une médaille de platine, quatre d’or, six d’argent et une de bronze[2].
+Il a consacré l’année suivante à trouver le financement nécessaire, à acquérir des connaissances et de l’équipement, et à constituer une équipe de collaborateurs possédant toutes les compétences pour assurer la réussite de l’entreprise. Un maître brasseur venu d’Angleterre, Alan Pugsley, a été engagé pour mettre au point la recette de la St-Ambroise. Conjointement avec Ellen Bounsall, biologiste de formation et maître brasseuse, il a reçu le mandat d’établir la réputation de la Brasserie dans le créneau des bières de distinction. Des critiques du monde entier ont vite classé ses bières parmi les meilleures au monde. La Brasserie a recueilli jusqu’ici plus d’une vingtaine de médailles à des concours internationaux, dont une médaille de platine, quatre d’or, six d’argent et une de bronze.
 En 2013, les Brasseurs RJ dirigé par son président Roger Jaar devient propriétaire à 100% de la Brasserie McAuslan quand Peter et Ellen décident de se retirer.
 </t>
         </is>
@@ -549,16 +563,90 @@
           <t>Bières et cidres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>McAuslan produit des bières sous les noms de St-Ambroise depuis 1989 et Griffon depuis 1992[3], [4]. En septembre 2017, McAuslan lance son cidre sous la bannière McAdam Cidre Urbain.
-Griffon
-Extra blonde
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">McAuslan produit des bières sous les noms de St-Ambroise depuis 1989 et Griffon depuis 1992, . En septembre 2017, McAuslan lance son cidre sous la bannière McAdam Cidre Urbain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>McAuslan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/McAuslan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bières et cidres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Griffon</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Extra blonde
 Rousse
-ESB
-St-Ambroise
-Bières régulières
-Pale Ale
+ESB</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>McAuslan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/McAuslan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bières et cidres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>St-Ambroise</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bières régulières</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pale Ale
 Noire à l'avoine
 Abricot
 Rousse
@@ -572,18 +660,90 @@
 Brut IPA
 Session de l'Ile IPA
 Oak Aged Pale Ale
-Cream Ale
-Bières de saison
-Érable
+Cream Ale</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>McAuslan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/McAuslan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bières et cidres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>St-Ambroise</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bières de saison</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Érable
 Framboise
 Citrouille
 Porter baltique
 Scotch Ale
 Stout Impériale Russe
 Vintage Ale
-Irish Stout
-McAdam Cidre Urbain
-McAdam Cidre Urbain
+Irish Stout</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>McAuslan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/McAuslan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bières et cidres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>McAdam Cidre Urbain</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>McAdam Cidre Urbain
 McAdam cidre Urbain Rosé
 mcadam cidre poire
 mcadam cidre fruit</t>
